--- a/data/pca/factorExposure/factorExposure_2014-10-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.002455892115080676</v>
+        <v>0.01586500479942703</v>
       </c>
       <c r="C2">
-        <v>-0.1020000289289085</v>
+        <v>-0.06991815225915447</v>
       </c>
       <c r="D2">
-        <v>0.0108512118861748</v>
+        <v>0.02825059637599478</v>
       </c>
       <c r="E2">
-        <v>0.2200301875423354</v>
+        <v>-0.06874542660003757</v>
       </c>
       <c r="F2">
-        <v>-0.1098495707051727</v>
+        <v>-0.1484633633385843</v>
       </c>
       <c r="G2">
-        <v>0.05950672027287495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0009953931113607191</v>
+      </c>
+      <c r="H2">
+        <v>0.05112607588935625</v>
+      </c>
+      <c r="I2">
+        <v>0.00698019272563752</v>
+      </c>
+      <c r="J2">
+        <v>-0.1816449212226506</v>
+      </c>
+      <c r="K2">
+        <v>-0.06148269544622707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.02252166115981518</v>
+        <v>0.01939228557114162</v>
       </c>
       <c r="C4">
-        <v>-0.1740918517036962</v>
+        <v>-0.1472643627386356</v>
       </c>
       <c r="D4">
-        <v>-0.02635377909495294</v>
+        <v>0.06642066535004423</v>
       </c>
       <c r="E4">
-        <v>0.1093878741955649</v>
+        <v>0.03200513936357602</v>
       </c>
       <c r="F4">
-        <v>0.04996896477722174</v>
+        <v>-0.07620916017361455</v>
       </c>
       <c r="G4">
-        <v>0.02372314482452141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01364406869858401</v>
+      </c>
+      <c r="H4">
+        <v>0.09871325495721928</v>
+      </c>
+      <c r="I4">
+        <v>0.01489064924931699</v>
+      </c>
+      <c r="J4">
+        <v>-0.1679669763133644</v>
+      </c>
+      <c r="K4">
+        <v>0.08871062263188938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02975453552175619</v>
+        <v>0.0402757687822643</v>
       </c>
       <c r="C6">
-        <v>-0.08201776233944393</v>
+        <v>-0.08726013969558442</v>
       </c>
       <c r="D6">
-        <v>-0.0488164531447366</v>
+        <v>0.0282020597122841</v>
       </c>
       <c r="E6">
-        <v>0.06601512177762323</v>
+        <v>-0.03984034106718298</v>
       </c>
       <c r="F6">
-        <v>-0.008421717396418189</v>
+        <v>-0.03001034523159941</v>
       </c>
       <c r="G6">
-        <v>-0.01395589593198623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04856468300299556</v>
+      </c>
+      <c r="H6">
+        <v>0.0275919796864389</v>
+      </c>
+      <c r="I6">
+        <v>-0.08040005402794242</v>
+      </c>
+      <c r="J6">
+        <v>-0.06049180818261259</v>
+      </c>
+      <c r="K6">
+        <v>-0.03785506294719029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.005512181412489203</v>
+        <v>0.01448969525555716</v>
       </c>
       <c r="C7">
-        <v>-0.05362883507979642</v>
+        <v>-0.07010611458854751</v>
       </c>
       <c r="D7">
-        <v>-0.02111319833290476</v>
+        <v>0.02508633382842283</v>
       </c>
       <c r="E7">
-        <v>0.05260026224503033</v>
+        <v>0.01991581380359573</v>
       </c>
       <c r="F7">
-        <v>0.04347776670962387</v>
+        <v>-0.003834756569456658</v>
       </c>
       <c r="G7">
-        <v>-0.00248742366546416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0505685667423601</v>
+      </c>
+      <c r="H7">
+        <v>0.1033968644238989</v>
+      </c>
+      <c r="I7">
+        <v>-0.007966423280072204</v>
+      </c>
+      <c r="J7">
+        <v>-0.03629384842525348</v>
+      </c>
+      <c r="K7">
+        <v>0.007971733532034333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.004350969329393914</v>
+        <v>0.0001237214517785677</v>
       </c>
       <c r="C8">
-        <v>-0.06859963688774623</v>
+        <v>-0.06365393365319946</v>
       </c>
       <c r="D8">
-        <v>-0.02253202334491041</v>
+        <v>0.04330023182944284</v>
       </c>
       <c r="E8">
-        <v>0.1023520558957141</v>
+        <v>-0.008384120345703057</v>
       </c>
       <c r="F8">
-        <v>0.01553032142922071</v>
+        <v>-0.067083730333443</v>
       </c>
       <c r="G8">
-        <v>0.03011185045387245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.006602568167915174</v>
+      </c>
+      <c r="H8">
+        <v>0.05811469778527956</v>
+      </c>
+      <c r="I8">
+        <v>-0.003251673913249088</v>
+      </c>
+      <c r="J8">
+        <v>-0.002586176108138969</v>
+      </c>
+      <c r="K8">
+        <v>-0.007674538386112317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01443522984031847</v>
+        <v>0.01423153266119875</v>
       </c>
       <c r="C9">
-        <v>-0.1333586181793311</v>
+        <v>-0.1090390567207316</v>
       </c>
       <c r="D9">
-        <v>-0.03344632947184695</v>
+        <v>0.04444507835579188</v>
       </c>
       <c r="E9">
-        <v>0.05519924505452335</v>
+        <v>0.003962461776436031</v>
       </c>
       <c r="F9">
-        <v>0.02547361516219116</v>
+        <v>-0.03366682791276548</v>
       </c>
       <c r="G9">
-        <v>-0.02978282664032421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.004610986109813511</v>
+      </c>
+      <c r="H9">
+        <v>0.09144512982735485</v>
+      </c>
+      <c r="I9">
+        <v>-0.01879963528117853</v>
+      </c>
+      <c r="J9">
+        <v>-0.07637856786161336</v>
+      </c>
+      <c r="K9">
+        <v>0.05925795931190845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2701001465187859</v>
+        <v>0.2481359267601069</v>
       </c>
       <c r="C10">
-        <v>0.09958712796296805</v>
+        <v>0.09720164011312292</v>
       </c>
       <c r="D10">
-        <v>0.0291328486526404</v>
+        <v>-0.005969537439386261</v>
       </c>
       <c r="E10">
-        <v>-0.02295275640245394</v>
+        <v>-0.01056467891502559</v>
       </c>
       <c r="F10">
-        <v>0.02262109262391651</v>
+        <v>0.006105138307952633</v>
       </c>
       <c r="G10">
-        <v>-0.02059900209060576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02336400591299431</v>
+      </c>
+      <c r="H10">
+        <v>0.04472038813850044</v>
+      </c>
+      <c r="I10">
+        <v>0.1747207150137733</v>
+      </c>
+      <c r="J10">
+        <v>0.08233173046094075</v>
+      </c>
+      <c r="K10">
+        <v>0.0552697579736811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01142912615422535</v>
+        <v>0.01716039466508851</v>
       </c>
       <c r="C11">
-        <v>-0.06429224883175229</v>
+        <v>-0.08203032227179616</v>
       </c>
       <c r="D11">
-        <v>-0.02116742039041749</v>
+        <v>0.03665874732029407</v>
       </c>
       <c r="E11">
-        <v>-0.0007912594469152193</v>
+        <v>0.009658736777170565</v>
       </c>
       <c r="F11">
-        <v>0.04035356618232339</v>
+        <v>0.008315576550089515</v>
       </c>
       <c r="G11">
-        <v>-0.04215473943224395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01564141225078044</v>
+      </c>
+      <c r="H11">
+        <v>0.03579414948340694</v>
+      </c>
+      <c r="I11">
+        <v>-0.02028458254004959</v>
+      </c>
+      <c r="J11">
+        <v>0.02307576665812991</v>
+      </c>
+      <c r="K11">
+        <v>0.03258148376293186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.009041392672057186</v>
+        <v>0.01659307360415816</v>
       </c>
       <c r="C12">
-        <v>-0.05398862584860099</v>
+        <v>-0.05868569328725679</v>
       </c>
       <c r="D12">
-        <v>-0.02553323124610981</v>
+        <v>0.02126551190537555</v>
       </c>
       <c r="E12">
-        <v>-0.001671380116752767</v>
+        <v>-0.01595900778029183</v>
       </c>
       <c r="F12">
-        <v>0.009874176031768695</v>
+        <v>0.01273758766659221</v>
       </c>
       <c r="G12">
-        <v>-0.07303992686182344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03242462925998944</v>
+      </c>
+      <c r="H12">
+        <v>0.03166445143344274</v>
+      </c>
+      <c r="I12">
+        <v>-0.01597916204821465</v>
+      </c>
+      <c r="J12">
+        <v>0.01064004641414181</v>
+      </c>
+      <c r="K12">
+        <v>0.03245882303727941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01879553697734934</v>
+        <v>0.006923684028715198</v>
       </c>
       <c r="C13">
-        <v>-0.1193041283478857</v>
+        <v>-0.1175455904406965</v>
       </c>
       <c r="D13">
-        <v>-0.04850221765332842</v>
+        <v>0.04115230834011185</v>
       </c>
       <c r="E13">
-        <v>0.06689567868503457</v>
+        <v>-0.1226112083207291</v>
       </c>
       <c r="F13">
-        <v>0.03524865776910516</v>
+        <v>-0.09664692729956352</v>
       </c>
       <c r="G13">
-        <v>-0.1732724428039195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1290212660226891</v>
+      </c>
+      <c r="H13">
+        <v>0.1295189196644856</v>
+      </c>
+      <c r="I13">
+        <v>0.1985527180770025</v>
+      </c>
+      <c r="J13">
+        <v>0.1888271476801972</v>
+      </c>
+      <c r="K13">
+        <v>-0.1492761135151316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01168245368293797</v>
+        <v>0.01902934844762032</v>
       </c>
       <c r="C14">
-        <v>-0.06381661166777353</v>
+        <v>-0.07359432825075274</v>
       </c>
       <c r="D14">
-        <v>-0.02495921554227439</v>
+        <v>0.04908363317897688</v>
       </c>
       <c r="E14">
-        <v>0.05038792966228806</v>
+        <v>-0.04268529773772762</v>
       </c>
       <c r="F14">
-        <v>0.0004500455869969324</v>
+        <v>0.0009917051365520226</v>
       </c>
       <c r="G14">
-        <v>-0.06805582962990674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.08911027312496754</v>
+      </c>
+      <c r="H14">
+        <v>0.2053110386590876</v>
+      </c>
+      <c r="I14">
+        <v>-0.03958201528669603</v>
+      </c>
+      <c r="J14">
+        <v>0.1111850855812658</v>
+      </c>
+      <c r="K14">
+        <v>-0.1096057373234728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.008085110183735233</v>
+        <v>0.001729024345617058</v>
       </c>
       <c r="C15">
-        <v>-0.09654978936510898</v>
+        <v>-0.07907061779740267</v>
       </c>
       <c r="D15">
-        <v>-0.03355009870929543</v>
+        <v>0.03466472591552244</v>
       </c>
       <c r="E15">
-        <v>0.08189633802685133</v>
+        <v>0.001130719017222936</v>
       </c>
       <c r="F15">
-        <v>0.02672279170911446</v>
+        <v>-0.02614897694612597</v>
       </c>
       <c r="G15">
-        <v>-0.02842708073741421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03638877837621265</v>
+      </c>
+      <c r="H15">
+        <v>0.0886114219822115</v>
+      </c>
+      <c r="I15">
+        <v>-0.02459529765196764</v>
+      </c>
+      <c r="J15">
+        <v>0.05773087964280948</v>
+      </c>
+      <c r="K15">
+        <v>0.007116326563883152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01334582678834137</v>
+        <v>0.01595516555064715</v>
       </c>
       <c r="C16">
-        <v>-0.05906804265574809</v>
+        <v>-0.06267461954562496</v>
       </c>
       <c r="D16">
-        <v>-0.0130555862234199</v>
+        <v>0.02532049322502999</v>
       </c>
       <c r="E16">
-        <v>-0.001831279900565414</v>
+        <v>0.003816356905676152</v>
       </c>
       <c r="F16">
-        <v>0.01631084316370707</v>
+        <v>0.005524805138157549</v>
       </c>
       <c r="G16">
-        <v>-0.03493643626422978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.01293877477378488</v>
+      </c>
+      <c r="H16">
+        <v>0.02730918309207364</v>
+      </c>
+      <c r="I16">
+        <v>-0.01726381334205118</v>
+      </c>
+      <c r="J16">
+        <v>0.006897669338367066</v>
+      </c>
+      <c r="K16">
+        <v>0.02335681535514933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01439096432921307</v>
+        <v>0.01396947699848396</v>
       </c>
       <c r="C20">
-        <v>-0.08725768989135679</v>
+        <v>-0.0856641213094558</v>
       </c>
       <c r="D20">
-        <v>-0.01410749899103314</v>
+        <v>0.02505238107369163</v>
       </c>
       <c r="E20">
-        <v>0.02422097616347311</v>
+        <v>0.02770616580336652</v>
       </c>
       <c r="F20">
-        <v>0.07293296832099916</v>
+        <v>-7.17644494439539e-05</v>
       </c>
       <c r="G20">
-        <v>-0.07922133128404098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04590216096163972</v>
+      </c>
+      <c r="H20">
+        <v>0.07225105589168383</v>
+      </c>
+      <c r="I20">
+        <v>-0.02085185426396748</v>
+      </c>
+      <c r="J20">
+        <v>-0.01371426547539777</v>
+      </c>
+      <c r="K20">
+        <v>0.02438847079251265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.002132997498949382</v>
+        <v>0.0143495204808388</v>
       </c>
       <c r="C21">
-        <v>-0.08851753066082586</v>
+        <v>-0.07445484371311165</v>
       </c>
       <c r="D21">
-        <v>0.03006129356605122</v>
+        <v>0.02361381560137469</v>
       </c>
       <c r="E21">
-        <v>0.05528158602996581</v>
+        <v>-0.08286646466175644</v>
       </c>
       <c r="F21">
-        <v>-0.03053423345840188</v>
+        <v>-0.01344424599324748</v>
       </c>
       <c r="G21">
-        <v>-0.05530636028442783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02755815931078814</v>
+      </c>
+      <c r="H21">
+        <v>0.1453439239393446</v>
+      </c>
+      <c r="I21">
+        <v>0.02750007638792563</v>
+      </c>
+      <c r="J21">
+        <v>0.04397803518125567</v>
+      </c>
+      <c r="K21">
+        <v>-0.01649021272262768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04511199069655016</v>
+        <v>0.007611581227367599</v>
       </c>
       <c r="C22">
-        <v>-0.1784373003671059</v>
+        <v>-0.1686553137737076</v>
       </c>
       <c r="D22">
-        <v>0.09726130810180103</v>
+        <v>0.01558740394101733</v>
       </c>
       <c r="E22">
-        <v>0.2965026682399226</v>
+        <v>0.0473977616532823</v>
       </c>
       <c r="F22">
-        <v>0.09241182922495191</v>
+        <v>-0.5251613008638533</v>
       </c>
       <c r="G22">
-        <v>0.2141441853749474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.0264291498598045</v>
+      </c>
+      <c r="H22">
+        <v>-0.303130778760619</v>
+      </c>
+      <c r="I22">
+        <v>0.03178374563717187</v>
+      </c>
+      <c r="J22">
+        <v>0.2216566931107196</v>
+      </c>
+      <c r="K22">
+        <v>0.02641625662632827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04490768231205894</v>
+        <v>0.01241362735775496</v>
       </c>
       <c r="C23">
-        <v>-0.1791447549144262</v>
+        <v>-0.1724226201189671</v>
       </c>
       <c r="D23">
-        <v>0.09689756765690564</v>
+        <v>0.01473885172705582</v>
       </c>
       <c r="E23">
-        <v>0.2921743723200267</v>
+        <v>0.04496342435253432</v>
       </c>
       <c r="F23">
-        <v>0.09156883519157276</v>
+        <v>-0.5071915054429946</v>
       </c>
       <c r="G23">
-        <v>0.2135137149907153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.02261922057591908</v>
+      </c>
+      <c r="H23">
+        <v>-0.2821842479746265</v>
+      </c>
+      <c r="I23">
+        <v>0.02395469316712039</v>
+      </c>
+      <c r="J23">
+        <v>0.2085625892501377</v>
+      </c>
+      <c r="K23">
+        <v>0.03336773596078271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.006733646543952879</v>
+        <v>0.01677688407390669</v>
       </c>
       <c r="C24">
-        <v>-0.06453152976140648</v>
+        <v>-0.06897897046778489</v>
       </c>
       <c r="D24">
-        <v>-0.03579883741850739</v>
+        <v>0.0381129406921417</v>
       </c>
       <c r="E24">
-        <v>0.001678709383898966</v>
+        <v>0.007087169201657998</v>
       </c>
       <c r="F24">
-        <v>0.02877569377948243</v>
+        <v>0.007856654303108048</v>
       </c>
       <c r="G24">
-        <v>-0.05543675923926538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02736551199457692</v>
+      </c>
+      <c r="H24">
+        <v>0.04342717090133565</v>
+      </c>
+      <c r="I24">
+        <v>-0.0191296537990736</v>
+      </c>
+      <c r="J24">
+        <v>0.0164627301864092</v>
+      </c>
+      <c r="K24">
+        <v>0.03392548341823411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01178360709956804</v>
+        <v>0.02122355325058366</v>
       </c>
       <c r="C25">
-        <v>-0.06217623740566135</v>
+        <v>-0.06860979732924269</v>
       </c>
       <c r="D25">
-        <v>-0.01155153922055388</v>
+        <v>0.0267732770714441</v>
       </c>
       <c r="E25">
-        <v>-0.005963728625140758</v>
+        <v>0.009374181747670626</v>
       </c>
       <c r="F25">
-        <v>0.03400742651025714</v>
+        <v>0.004921722554392765</v>
       </c>
       <c r="G25">
-        <v>-0.05318715206571306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02404428821699381</v>
+      </c>
+      <c r="H25">
+        <v>0.03762696065337422</v>
+      </c>
+      <c r="I25">
+        <v>-0.006161686817864234</v>
+      </c>
+      <c r="J25">
+        <v>0.02727155014752649</v>
+      </c>
+      <c r="K25">
+        <v>0.02550502852799117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.005843025919419312</v>
+        <v>0.02337771538200009</v>
       </c>
       <c r="C26">
-        <v>-0.05823653745260496</v>
+        <v>-0.05902559417393401</v>
       </c>
       <c r="D26">
-        <v>-0.05280944239413735</v>
+        <v>0.06320947826706365</v>
       </c>
       <c r="E26">
-        <v>0.02579321888114973</v>
+        <v>0.005444301524866086</v>
       </c>
       <c r="F26">
-        <v>-0.002569636978005855</v>
+        <v>0.01668279246567987</v>
       </c>
       <c r="G26">
-        <v>-0.04230818299012454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.00312133005211102</v>
+      </c>
+      <c r="H26">
+        <v>0.1046398177344735</v>
+      </c>
+      <c r="I26">
+        <v>-0.04832877738912793</v>
+      </c>
+      <c r="J26">
+        <v>-0.09833147703906966</v>
+      </c>
+      <c r="K26">
+        <v>0.08963947794752006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3752934130805355</v>
+        <v>0.3196284997416492</v>
       </c>
       <c r="C28">
-        <v>0.1186145364856295</v>
+        <v>0.1115872211070929</v>
       </c>
       <c r="D28">
-        <v>0.03338853545859947</v>
+        <v>-0.03393564431717346</v>
       </c>
       <c r="E28">
-        <v>-0.104142848149925</v>
+        <v>-0.01436859710481085</v>
       </c>
       <c r="F28">
-        <v>-0.03394085080714322</v>
+        <v>-0.0444230759978045</v>
       </c>
       <c r="G28">
-        <v>-0.001073174778117557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.113152149477872</v>
+      </c>
+      <c r="H28">
+        <v>0.07720267551978874</v>
+      </c>
+      <c r="I28">
+        <v>0.2265850599316902</v>
+      </c>
+      <c r="J28">
+        <v>-0.008824296911749964</v>
+      </c>
+      <c r="K28">
+        <v>0.01655658834607333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.0105400022147748</v>
+        <v>0.01351352739207674</v>
       </c>
       <c r="C29">
-        <v>-0.07124397252710642</v>
+        <v>-0.07964713553809848</v>
       </c>
       <c r="D29">
-        <v>-0.04026965016747006</v>
+        <v>0.05427781474484233</v>
       </c>
       <c r="E29">
-        <v>0.05602436334391202</v>
+        <v>-0.05129283681793439</v>
       </c>
       <c r="F29">
-        <v>0.01514941028375117</v>
+        <v>-0.005895764768780878</v>
       </c>
       <c r="G29">
-        <v>-0.09705070681415702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1319687327354289</v>
+      </c>
+      <c r="H29">
+        <v>0.2877316735163821</v>
+      </c>
+      <c r="I29">
+        <v>-0.0365359758235916</v>
+      </c>
+      <c r="J29">
+        <v>0.1661611977369805</v>
+      </c>
+      <c r="K29">
+        <v>-0.2026471071301298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.03564998559033174</v>
+        <v>0.03055544546116691</v>
       </c>
       <c r="C30">
-        <v>-0.1697208296540184</v>
+        <v>-0.1429925573225449</v>
       </c>
       <c r="D30">
-        <v>-0.04843457282397258</v>
+        <v>0.05576748257821614</v>
       </c>
       <c r="E30">
-        <v>0.06613851020861704</v>
+        <v>0.007915088702931708</v>
       </c>
       <c r="F30">
-        <v>0.04164884001597777</v>
+        <v>-0.06822019841503452</v>
       </c>
       <c r="G30">
-        <v>0.009439678819251587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01240357909391458</v>
+      </c>
+      <c r="H30">
+        <v>0.02540145929874695</v>
+      </c>
+      <c r="I30">
+        <v>-0.0481718104348989</v>
+      </c>
+      <c r="J30">
+        <v>-0.08645768692201848</v>
+      </c>
+      <c r="K30">
+        <v>0.02774518825136704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.001193796515991324</v>
+        <v>0.0136997037680104</v>
       </c>
       <c r="C31">
-        <v>-0.07489009214074248</v>
+        <v>-0.0862061259174399</v>
       </c>
       <c r="D31">
-        <v>-0.04267126551432692</v>
+        <v>0.04350154244739888</v>
       </c>
       <c r="E31">
-        <v>-0.01640255338294313</v>
+        <v>-0.002104230327457488</v>
       </c>
       <c r="F31">
-        <v>-0.01033771657546081</v>
+        <v>0.006819908125786685</v>
       </c>
       <c r="G31">
-        <v>-0.02092793430286553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03018414358204321</v>
+      </c>
+      <c r="H31">
+        <v>0.03148423924814906</v>
+      </c>
+      <c r="I31">
+        <v>-0.01707237173991968</v>
+      </c>
+      <c r="J31">
+        <v>0.03246155462828147</v>
+      </c>
+      <c r="K31">
+        <v>0.02102978033778957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.02620411318641896</v>
+        <v>0.02399375608353929</v>
       </c>
       <c r="C32">
-        <v>-0.08069376641487075</v>
+        <v>-0.05566440773587732</v>
       </c>
       <c r="D32">
-        <v>0.01307622820193816</v>
+        <v>0.01803661794034982</v>
       </c>
       <c r="E32">
-        <v>0.1682512281735356</v>
+        <v>-0.07381535252691737</v>
       </c>
       <c r="F32">
-        <v>-0.0142842594352876</v>
+        <v>-0.09732900019821003</v>
       </c>
       <c r="G32">
-        <v>-0.06555472361480684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.08151511120917586</v>
+      </c>
+      <c r="H32">
+        <v>0.1662742474854301</v>
+      </c>
+      <c r="I32">
+        <v>0.2269494290675236</v>
+      </c>
+      <c r="J32">
+        <v>-0.005724935704435586</v>
+      </c>
+      <c r="K32">
+        <v>-0.2077830250428729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01508543605547088</v>
+        <v>0.01659315200699598</v>
       </c>
       <c r="C33">
-        <v>-0.09138697791529657</v>
+        <v>-0.1067748429668886</v>
       </c>
       <c r="D33">
-        <v>-0.05372913723743875</v>
+        <v>0.04684824359741829</v>
       </c>
       <c r="E33">
-        <v>0.0247494338777766</v>
+        <v>0.00793096426216934</v>
       </c>
       <c r="F33">
-        <v>0.007762784469855899</v>
+        <v>-0.01578898451128385</v>
       </c>
       <c r="G33">
-        <v>-0.03383708426286479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02917289217572367</v>
+      </c>
+      <c r="H33">
+        <v>0.06015636636731614</v>
+      </c>
+      <c r="I33">
+        <v>0.0131742344394388</v>
+      </c>
+      <c r="J33">
+        <v>0.006567526743618768</v>
+      </c>
+      <c r="K33">
+        <v>0.02018447310540262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.005948594352820177</v>
+        <v>0.01667032944244879</v>
       </c>
       <c r="C34">
-        <v>-0.04706375486028523</v>
+        <v>-0.04982386620320038</v>
       </c>
       <c r="D34">
-        <v>-0.01887252041576079</v>
+        <v>0.02004634687090737</v>
       </c>
       <c r="E34">
-        <v>0.009060183982247411</v>
+        <v>-0.0003184085087760381</v>
       </c>
       <c r="F34">
-        <v>0.008616776150738076</v>
+        <v>0.007023546620893498</v>
       </c>
       <c r="G34">
-        <v>-0.0415134315154855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02003256669914782</v>
+      </c>
+      <c r="H34">
+        <v>0.01192736502204771</v>
+      </c>
+      <c r="I34">
+        <v>-0.01040841535320187</v>
+      </c>
+      <c r="J34">
+        <v>0.01397318702975521</v>
+      </c>
+      <c r="K34">
+        <v>0.03273244085833597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.002491487110199954</v>
+        <v>0.0089317162047575</v>
       </c>
       <c r="C35">
-        <v>-0.01765887415644818</v>
+        <v>-0.0409047498311867</v>
       </c>
       <c r="D35">
-        <v>-0.005409969931368396</v>
+        <v>0.02143363106380002</v>
       </c>
       <c r="E35">
-        <v>0.01569087539755866</v>
+        <v>-0.01235087926635628</v>
       </c>
       <c r="F35">
-        <v>0.00838234557672133</v>
+        <v>-0.005696341215256182</v>
       </c>
       <c r="G35">
-        <v>-0.02604390185417067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05375275771944787</v>
+      </c>
+      <c r="H35">
+        <v>0.1457940000250748</v>
+      </c>
+      <c r="I35">
+        <v>-0.003257546597735622</v>
+      </c>
+      <c r="J35">
+        <v>0.1376856982554197</v>
+      </c>
+      <c r="K35">
+        <v>-0.09058170913022323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006808852263571788</v>
+        <v>0.01558423067499176</v>
       </c>
       <c r="C36">
-        <v>-0.05199646286767069</v>
+        <v>-0.04752974649459957</v>
       </c>
       <c r="D36">
-        <v>-0.04795349094236263</v>
+        <v>0.04768326207585204</v>
       </c>
       <c r="E36">
-        <v>0.01576860609925677</v>
+        <v>-0.001352377800462557</v>
       </c>
       <c r="F36">
-        <v>-0.000921969739908174</v>
+        <v>-0.00230772158716057</v>
       </c>
       <c r="G36">
-        <v>-0.02091232238388248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.002386188324439023</v>
+      </c>
+      <c r="H36">
+        <v>0.07457281562889954</v>
+      </c>
+      <c r="I36">
+        <v>-0.0181927837465979</v>
+      </c>
+      <c r="J36">
+        <v>-0.03450638786330103</v>
+      </c>
+      <c r="K36">
+        <v>0.05769554814923649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.0278791920634821</v>
+        <v>0.01163614919858378</v>
       </c>
       <c r="C38">
-        <v>-0.05048349262258208</v>
+        <v>-0.06047068926753971</v>
       </c>
       <c r="D38">
-        <v>-0.03276393289514739</v>
+        <v>0.03892665745555061</v>
       </c>
       <c r="E38">
-        <v>0.006474405092859162</v>
+        <v>0.03096436223355935</v>
       </c>
       <c r="F38">
-        <v>0.01549952643912732</v>
+        <v>-0.01247609236432747</v>
       </c>
       <c r="G38">
-        <v>-0.006687561299183673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0005679890926869331</v>
+      </c>
+      <c r="H38">
+        <v>0.08835613626686065</v>
+      </c>
+      <c r="I38">
+        <v>0.05607020232646643</v>
+      </c>
+      <c r="J38">
+        <v>0.04026238991909603</v>
+      </c>
+      <c r="K38">
+        <v>0.04402681946909943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.007060487565439985</v>
+        <v>0.01758567278030664</v>
       </c>
       <c r="C39">
-        <v>-0.1297113213689307</v>
+        <v>-0.1255552894244879</v>
       </c>
       <c r="D39">
-        <v>-0.03452311302543642</v>
+        <v>0.0529408359754252</v>
       </c>
       <c r="E39">
-        <v>0.03086886836120157</v>
+        <v>-0.001574300466720434</v>
       </c>
       <c r="F39">
-        <v>0.04201206271774541</v>
+        <v>-0.005538816266757653</v>
       </c>
       <c r="G39">
-        <v>-0.07192637197230903</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04651765626329077</v>
+      </c>
+      <c r="H39">
+        <v>0.04823638609348966</v>
+      </c>
+      <c r="I39">
+        <v>-0.07371847943533619</v>
+      </c>
+      <c r="J39">
+        <v>-0.01398918733878071</v>
+      </c>
+      <c r="K39">
+        <v>0.037358635016812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01032705864303363</v>
+        <v>0.01445005822937691</v>
       </c>
       <c r="C40">
-        <v>-0.02447967862136056</v>
+        <v>-0.05922229559834382</v>
       </c>
       <c r="D40">
-        <v>-0.02410594531823806</v>
+        <v>0.03708824124187107</v>
       </c>
       <c r="E40">
-        <v>0.1413797686704966</v>
+        <v>-0.02616726446444865</v>
       </c>
       <c r="F40">
-        <v>0.04042541448887173</v>
+        <v>-0.04259711548045531</v>
       </c>
       <c r="G40">
-        <v>-0.06717561983796612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1475799805511399</v>
+      </c>
+      <c r="H40">
+        <v>0.03108866513487079</v>
+      </c>
+      <c r="I40">
+        <v>0.02140041045022117</v>
+      </c>
+      <c r="J40">
+        <v>0.2555622949212244</v>
+      </c>
+      <c r="K40">
+        <v>0.08354616457730339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.008401141204296046</v>
+        <v>0.02017043290247709</v>
       </c>
       <c r="C41">
-        <v>-0.01564181564935298</v>
+        <v>-0.04543751436372598</v>
       </c>
       <c r="D41">
-        <v>-0.002411662525403071</v>
+        <v>0.01653048920813987</v>
       </c>
       <c r="E41">
-        <v>-0.02432386316196495</v>
+        <v>0.007539637919514429</v>
       </c>
       <c r="F41">
-        <v>-0.01732375303342314</v>
+        <v>0.02410604746543969</v>
       </c>
       <c r="G41">
-        <v>0.03048160998726143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006282683861977667</v>
+      </c>
+      <c r="H41">
+        <v>0.02916297826370652</v>
+      </c>
+      <c r="I41">
+        <v>0.03425529898273245</v>
+      </c>
+      <c r="J41">
+        <v>0.05408491489726022</v>
+      </c>
+      <c r="K41">
+        <v>-0.001287183330786622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.002604045257338158</v>
+        <v>0.01689111515953332</v>
       </c>
       <c r="C43">
-        <v>-0.01421434223159959</v>
+        <v>-0.04211205575752812</v>
       </c>
       <c r="D43">
-        <v>-0.007323312770236117</v>
+        <v>0.02916016673574759</v>
       </c>
       <c r="E43">
-        <v>-0.001673687044776184</v>
+        <v>0.01584136440372807</v>
       </c>
       <c r="F43">
-        <v>0.01486797648465041</v>
+        <v>0.006877686816113658</v>
       </c>
       <c r="G43">
-        <v>0.006686751333955036</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.001091269657051599</v>
+      </c>
+      <c r="H43">
+        <v>0.04694704495454361</v>
+      </c>
+      <c r="I43">
+        <v>0.005252530157173954</v>
+      </c>
+      <c r="J43">
+        <v>0.04365971194768762</v>
+      </c>
+      <c r="K43">
+        <v>-0.005889770600930719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02475914658191683</v>
+        <v>0.01202824309488279</v>
       </c>
       <c r="C44">
-        <v>-0.08861673514772009</v>
+        <v>-0.09183079073810552</v>
       </c>
       <c r="D44">
-        <v>-0.01180882671063229</v>
+        <v>0.05417590535990954</v>
       </c>
       <c r="E44">
-        <v>0.07853812098946771</v>
+        <v>0.01761860231670491</v>
       </c>
       <c r="F44">
-        <v>0.05748039334647176</v>
+        <v>-0.06972093293017301</v>
       </c>
       <c r="G44">
-        <v>-0.01547174802116436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04782180906947815</v>
+      </c>
+      <c r="H44">
+        <v>0.05329839039951974</v>
+      </c>
+      <c r="I44">
+        <v>-0.05333465905043817</v>
+      </c>
+      <c r="J44">
+        <v>-0.05743670253712036</v>
+      </c>
+      <c r="K44">
+        <v>-0.006265572192494189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006024881362681293</v>
+        <v>0.002996246752104154</v>
       </c>
       <c r="C46">
-        <v>-0.06600467686253787</v>
+        <v>-0.06285587791193924</v>
       </c>
       <c r="D46">
-        <v>-0.03816971823737688</v>
+        <v>0.02987590020212476</v>
       </c>
       <c r="E46">
-        <v>0.04205909602905442</v>
+        <v>-0.00806765395907556</v>
       </c>
       <c r="F46">
-        <v>0.02099501555479759</v>
+        <v>0.009435176381874518</v>
       </c>
       <c r="G46">
-        <v>-0.05823245819817064</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04444278969182097</v>
+      </c>
+      <c r="H46">
+        <v>0.1051679875295722</v>
+      </c>
+      <c r="I46">
+        <v>-0.005311717135270315</v>
+      </c>
+      <c r="J46">
+        <v>0.07780473341557187</v>
+      </c>
+      <c r="K46">
+        <v>-0.04172390681602871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01101408887800859</v>
+        <v>0.02310188584266696</v>
       </c>
       <c r="C47">
-        <v>-0.09507570491535892</v>
+        <v>-0.08669413988300326</v>
       </c>
       <c r="D47">
-        <v>-0.04423852638748632</v>
+        <v>0.04638358661265229</v>
       </c>
       <c r="E47">
-        <v>-0.02476224658952496</v>
+        <v>-0.008076498105076772</v>
       </c>
       <c r="F47">
-        <v>-0.02521315026775553</v>
+        <v>0.02339623720204797</v>
       </c>
       <c r="G47">
-        <v>-0.06012565070711066</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008085884107645901</v>
+      </c>
+      <c r="H47">
+        <v>0.0680543644951493</v>
+      </c>
+      <c r="I47">
+        <v>0.01894572117862506</v>
+      </c>
+      <c r="J47">
+        <v>0.03278796636748501</v>
+      </c>
+      <c r="K47">
+        <v>0.01542965841741485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01129946937898915</v>
+        <v>0.02129621035576944</v>
       </c>
       <c r="C48">
-        <v>-0.04965979005349561</v>
+        <v>-0.05170857004954208</v>
       </c>
       <c r="D48">
-        <v>-0.05706742986969662</v>
+        <v>0.05543666891962237</v>
       </c>
       <c r="E48">
-        <v>0.01411428186312691</v>
+        <v>0.006625412341285475</v>
       </c>
       <c r="F48">
-        <v>0.006787770217757098</v>
+        <v>0.002750210385802409</v>
       </c>
       <c r="G48">
-        <v>-0.02473745108550246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005049855223261846</v>
+      </c>
+      <c r="H48">
+        <v>0.1005827577538231</v>
+      </c>
+      <c r="I48">
+        <v>-0.03560328702632469</v>
+      </c>
+      <c r="J48">
+        <v>-0.08187590487485609</v>
+      </c>
+      <c r="K48">
+        <v>0.07006285876410696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006125859266991406</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0240853992649479</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001096213467389941</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01269197834703327</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03091356000827547</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03057718159772368</v>
+      </c>
+      <c r="H49">
+        <v>-0.02458262056790593</v>
+      </c>
+      <c r="I49">
+        <v>-0.04348924108895404</v>
+      </c>
+      <c r="J49">
+        <v>-0.01764414417877101</v>
+      </c>
+      <c r="K49">
+        <v>0.04775392319579828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0008810950023904137</v>
+        <v>0.01322763713954729</v>
       </c>
       <c r="C50">
-        <v>-0.07841309270637317</v>
+        <v>-0.08148783532138308</v>
       </c>
       <c r="D50">
-        <v>-0.02763793322568114</v>
+        <v>0.0291109503261344</v>
       </c>
       <c r="E50">
-        <v>0.004804333584064304</v>
+        <v>0.002113420744798928</v>
       </c>
       <c r="F50">
-        <v>0.007316701806991691</v>
+        <v>-0.0008868819447663295</v>
       </c>
       <c r="G50">
-        <v>-0.01015325909909364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01164127729848895</v>
+      </c>
+      <c r="H50">
+        <v>0.05743941083099217</v>
+      </c>
+      <c r="I50">
+        <v>0.03510648873988303</v>
+      </c>
+      <c r="J50">
+        <v>0.02210954245287044</v>
+      </c>
+      <c r="K50">
+        <v>5.795652922081942e-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003766410637184238</v>
+        <v>-0.005450074117874276</v>
       </c>
       <c r="C51">
-        <v>-0.07585272858045379</v>
+        <v>-0.03802406920572877</v>
       </c>
       <c r="D51">
-        <v>-0.0001106933050575411</v>
+        <v>0.02205841800557908</v>
       </c>
       <c r="E51">
-        <v>0.09221049752273075</v>
+        <v>-0.009569690864661194</v>
       </c>
       <c r="F51">
-        <v>0.04153394148205675</v>
+        <v>-0.03476256127259846</v>
       </c>
       <c r="G51">
-        <v>-0.01247639350731794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03632457008940824</v>
+      </c>
+      <c r="H51">
+        <v>0.09398249526158167</v>
+      </c>
+      <c r="I51">
+        <v>-0.0227353519792931</v>
+      </c>
+      <c r="J51">
+        <v>-0.1143806019792373</v>
+      </c>
+      <c r="K51">
+        <v>0.0156386823121452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04404285325847457</v>
+        <v>0.05738693092558645</v>
       </c>
       <c r="C53">
-        <v>-0.1359351631105769</v>
+        <v>-0.1333063040274947</v>
       </c>
       <c r="D53">
-        <v>-0.06603481317828232</v>
+        <v>0.05646068409596228</v>
       </c>
       <c r="E53">
-        <v>-0.1319790030910058</v>
+        <v>-0.003861386129030225</v>
       </c>
       <c r="F53">
-        <v>-0.01792081723983714</v>
+        <v>0.07163467338461148</v>
       </c>
       <c r="G53">
-        <v>0.02069768134202194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08331974880963287</v>
+      </c>
+      <c r="H53">
+        <v>-0.02063667089542922</v>
+      </c>
+      <c r="I53">
+        <v>0.04793937275418805</v>
+      </c>
+      <c r="J53">
+        <v>0.01584329555230038</v>
+      </c>
+      <c r="K53">
+        <v>0.05624897176216614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.01210340551043826</v>
+        <v>0.01872415941166731</v>
       </c>
       <c r="C54">
-        <v>-0.06691134678318385</v>
+        <v>-0.07499583132060157</v>
       </c>
       <c r="D54">
-        <v>-0.00687398026174382</v>
+        <v>0.01128089063281413</v>
       </c>
       <c r="E54">
-        <v>-0.006226529325024489</v>
+        <v>-0.00223677885994717</v>
       </c>
       <c r="F54">
-        <v>0.02269788518419741</v>
+        <v>0.0160073320928805</v>
       </c>
       <c r="G54">
-        <v>-0.03384887720097528</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0265926539354397</v>
+      </c>
+      <c r="H54">
+        <v>0.05797115603180924</v>
+      </c>
+      <c r="I54">
+        <v>-0.02442760795919481</v>
+      </c>
+      <c r="J54">
+        <v>0.0123032247560901</v>
+      </c>
+      <c r="K54">
+        <v>-0.003943725204928123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02878547233287856</v>
+        <v>0.0333958794126096</v>
       </c>
       <c r="C55">
-        <v>-0.0985853017238561</v>
+        <v>-0.09064781057694979</v>
       </c>
       <c r="D55">
-        <v>-0.06608535551132132</v>
+        <v>0.05507705640422195</v>
       </c>
       <c r="E55">
-        <v>-0.06700151127715809</v>
+        <v>0.003032958443555147</v>
       </c>
       <c r="F55">
-        <v>-0.02631671514423413</v>
+        <v>0.05630430335530257</v>
       </c>
       <c r="G55">
-        <v>-0.01228397174028135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04448257580976322</v>
+      </c>
+      <c r="H55">
+        <v>-0.01358964888941207</v>
+      </c>
+      <c r="I55">
+        <v>-0.008815266023790099</v>
+      </c>
+      <c r="J55">
+        <v>0.005454394548921739</v>
+      </c>
+      <c r="K55">
+        <v>0.03674456500875068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.03371001645956638</v>
+        <v>0.04602262681136458</v>
       </c>
       <c r="C56">
-        <v>-0.1702588385443237</v>
+        <v>-0.1565185665860321</v>
       </c>
       <c r="D56">
-        <v>-0.05960425663032507</v>
+        <v>0.07888640958669661</v>
       </c>
       <c r="E56">
-        <v>-0.142731119835734</v>
+        <v>-0.02560713081068796</v>
       </c>
       <c r="F56">
-        <v>-0.06887850684462303</v>
+        <v>0.09754830253447107</v>
       </c>
       <c r="G56">
-        <v>0.04629333856680523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1555767492329556</v>
+      </c>
+      <c r="H56">
+        <v>-0.03069129329118056</v>
+      </c>
+      <c r="I56">
+        <v>0.03184820569178688</v>
+      </c>
+      <c r="J56">
+        <v>-0.01990680613708725</v>
+      </c>
+      <c r="K56">
+        <v>0.04639773297472189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03006238535323681</v>
+        <v>0.01971427287636592</v>
       </c>
       <c r="C58">
-        <v>-0.2662316165311301</v>
+        <v>-0.1770230213668721</v>
       </c>
       <c r="D58">
-        <v>0.08174304019833058</v>
+        <v>0.0356020719712114</v>
       </c>
       <c r="E58">
-        <v>0.2805317560574594</v>
+        <v>0.01259562717324015</v>
       </c>
       <c r="F58">
-        <v>0.1696148752171474</v>
+        <v>-0.3290264398789908</v>
       </c>
       <c r="G58">
-        <v>0.2733818654366851</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.06199095574096428</v>
+      </c>
+      <c r="H58">
+        <v>0.02886809939744153</v>
+      </c>
+      <c r="I58">
+        <v>-0.005200968052730534</v>
+      </c>
+      <c r="J58">
+        <v>-0.4438354139739641</v>
+      </c>
+      <c r="K58">
+        <v>-0.199851981242089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2812389138413414</v>
+        <v>0.2891332009734492</v>
       </c>
       <c r="C59">
-        <v>0.01234351307413992</v>
+        <v>0.04351533408361121</v>
       </c>
       <c r="D59">
-        <v>0.04573169944011825</v>
+        <v>-0.007638030544200558</v>
       </c>
       <c r="E59">
-        <v>0.04175431333467725</v>
+        <v>-0.02718724189432074</v>
       </c>
       <c r="F59">
-        <v>-0.04400618100102288</v>
+        <v>-0.04232682843300805</v>
       </c>
       <c r="G59">
-        <v>-0.02824623575689603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004315792065300483</v>
+      </c>
+      <c r="H59">
+        <v>-0.0204960663084182</v>
+      </c>
+      <c r="I59">
+        <v>0.02910599053386735</v>
+      </c>
+      <c r="J59">
+        <v>0.02150852886611562</v>
+      </c>
+      <c r="K59">
+        <v>0.02162148126446057</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1276177183732007</v>
+        <v>0.1516523539716194</v>
       </c>
       <c r="C60">
-        <v>-0.1588802151825643</v>
+        <v>-0.1594918315564863</v>
       </c>
       <c r="D60">
-        <v>-0.07261802261032457</v>
+        <v>0.04550564260676233</v>
       </c>
       <c r="E60">
-        <v>-0.06370233632624975</v>
+        <v>-0.02621427591231472</v>
       </c>
       <c r="F60">
-        <v>0.0356583401821623</v>
+        <v>0.1213003011692068</v>
       </c>
       <c r="G60">
-        <v>-0.2918231662395605</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2435761668054352</v>
+      </c>
+      <c r="H60">
+        <v>-0.2399530261016039</v>
+      </c>
+      <c r="I60">
+        <v>-0.0181508495241834</v>
+      </c>
+      <c r="J60">
+        <v>-0.01172180738600453</v>
+      </c>
+      <c r="K60">
+        <v>-0.06067932487068499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.005939306421616089</v>
+        <v>0.01985686268124651</v>
       </c>
       <c r="C61">
-        <v>-0.09217343798336869</v>
+        <v>-0.09942594123325667</v>
       </c>
       <c r="D61">
-        <v>-0.05026777615097598</v>
+        <v>0.05227424430643434</v>
       </c>
       <c r="E61">
-        <v>-0.01432974478282419</v>
+        <v>-0.005228650184468232</v>
       </c>
       <c r="F61">
-        <v>0.01540980146504801</v>
+        <v>0.03087414751585684</v>
       </c>
       <c r="G61">
-        <v>-0.07674046080753098</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02681757281740813</v>
+      </c>
+      <c r="H61">
+        <v>0.0607006357050945</v>
+      </c>
+      <c r="I61">
+        <v>-0.03291774796845783</v>
+      </c>
+      <c r="J61">
+        <v>0.02163058364631076</v>
+      </c>
+      <c r="K61">
+        <v>0.04022814626100142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002091648884121016</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01166823231653488</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003005625646762443</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.005685332231115707</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01062325763181408</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01381915440162613</v>
+      </c>
+      <c r="H62">
+        <v>0.005755838494290531</v>
+      </c>
+      <c r="I62">
+        <v>0.00247883788764672</v>
+      </c>
+      <c r="J62">
+        <v>0.007077213959420147</v>
+      </c>
+      <c r="K62">
+        <v>0.01632373682451698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001257220504170254</v>
+        <v>0.02552574995045474</v>
       </c>
       <c r="C63">
-        <v>-0.0677527946227455</v>
+        <v>-0.07048304276292316</v>
       </c>
       <c r="D63">
-        <v>-0.03384087971310497</v>
+        <v>0.05923479026056499</v>
       </c>
       <c r="E63">
-        <v>-0.01170066891214321</v>
+        <v>-0.004249729382656085</v>
       </c>
       <c r="F63">
-        <v>0.0239273045666758</v>
+        <v>0.01702571993262088</v>
       </c>
       <c r="G63">
-        <v>-0.03444493747590981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01010178712130621</v>
+      </c>
+      <c r="H63">
+        <v>0.0663150071572023</v>
+      </c>
+      <c r="I63">
+        <v>-0.01242611415966989</v>
+      </c>
+      <c r="J63">
+        <v>0.01824955431249898</v>
+      </c>
+      <c r="K63">
+        <v>0.06374674609865587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.005947858778483787</v>
+        <v>0.01416804592406246</v>
       </c>
       <c r="C64">
-        <v>-0.08122828614383014</v>
+        <v>-0.08917014414932817</v>
       </c>
       <c r="D64">
-        <v>-0.06543254439539432</v>
+        <v>0.03411645959096601</v>
       </c>
       <c r="E64">
-        <v>0.02507764208108141</v>
+        <v>0.03387233024690337</v>
       </c>
       <c r="F64">
-        <v>0.02888693720345634</v>
+        <v>-0.03325778983950105</v>
       </c>
       <c r="G64">
-        <v>-0.0558491329392103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06783432039811933</v>
+      </c>
+      <c r="H64">
+        <v>0.03694300971512627</v>
+      </c>
+      <c r="I64">
+        <v>-0.03231904507072799</v>
+      </c>
+      <c r="J64">
+        <v>0.0252393747916797</v>
+      </c>
+      <c r="K64">
+        <v>0.1164503767230597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01667612185288019</v>
+        <v>0.03106884840313242</v>
       </c>
       <c r="C65">
-        <v>-0.08148278908212161</v>
+        <v>-0.09352875688034042</v>
       </c>
       <c r="D65">
-        <v>-0.03390004161488849</v>
+        <v>0.01906644686512028</v>
       </c>
       <c r="E65">
-        <v>0.03355433910787899</v>
+        <v>0.02992950868427497</v>
       </c>
       <c r="F65">
-        <v>0.02324129457912456</v>
+        <v>-0.005580888589049108</v>
       </c>
       <c r="G65">
-        <v>-0.01572267627678532</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09758255495882005</v>
+      </c>
+      <c r="H65">
+        <v>-0.008300127546174112</v>
+      </c>
+      <c r="I65">
+        <v>-0.07358756197766687</v>
+      </c>
+      <c r="J65">
+        <v>-0.08021901570824118</v>
+      </c>
+      <c r="K65">
+        <v>-0.009747693281619861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.006803869083408708</v>
+        <v>0.01257007545296888</v>
       </c>
       <c r="C66">
-        <v>-0.1637177772350807</v>
+        <v>-0.1614147271064179</v>
       </c>
       <c r="D66">
-        <v>-0.01648483964260931</v>
+        <v>0.04510060714830564</v>
       </c>
       <c r="E66">
-        <v>0.06976507935525957</v>
+        <v>-0.01315397582748644</v>
       </c>
       <c r="F66">
-        <v>0.02974136933532089</v>
+        <v>-0.01487408818165202</v>
       </c>
       <c r="G66">
-        <v>-0.08704148965801178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03086003790679112</v>
+      </c>
+      <c r="H66">
+        <v>0.06211252405504922</v>
+      </c>
+      <c r="I66">
+        <v>-0.05323807471431541</v>
+      </c>
+      <c r="J66">
+        <v>-0.01222595595321629</v>
+      </c>
+      <c r="K66">
+        <v>0.04140885204513418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.0287717350401231</v>
+        <v>0.02077186192246554</v>
       </c>
       <c r="C67">
-        <v>-0.03169296457683536</v>
+        <v>-0.05090677642981387</v>
       </c>
       <c r="D67">
-        <v>-0.05552191385310448</v>
+        <v>0.04118321437400312</v>
       </c>
       <c r="E67">
-        <v>-0.03243989084090306</v>
+        <v>0.02968370258389905</v>
       </c>
       <c r="F67">
-        <v>0.01248177644254633</v>
+        <v>0.02357383401931252</v>
       </c>
       <c r="G67">
-        <v>-0.0241214783106204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02365039269657051</v>
+      </c>
+      <c r="H67">
+        <v>0.06106067855072242</v>
+      </c>
+      <c r="I67">
+        <v>0.04983619629151302</v>
+      </c>
+      <c r="J67">
+        <v>0.05498857002711617</v>
+      </c>
+      <c r="K67">
+        <v>0.01937880033429697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2820410350236427</v>
+        <v>0.2932603592433172</v>
       </c>
       <c r="C68">
-        <v>0.04743946523661408</v>
+        <v>0.06840255456899132</v>
       </c>
       <c r="D68">
-        <v>0.03634771809452241</v>
+        <v>-0.0279348650105125</v>
       </c>
       <c r="E68">
-        <v>0.01987863898536828</v>
+        <v>-0.009102161964568251</v>
       </c>
       <c r="F68">
-        <v>-0.009222002481727866</v>
+        <v>-0.02569800090003359</v>
       </c>
       <c r="G68">
-        <v>0.02158542688373587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02332145295458051</v>
+      </c>
+      <c r="H68">
+        <v>0.02465885688491508</v>
+      </c>
+      <c r="I68">
+        <v>0.03470852988302012</v>
+      </c>
+      <c r="J68">
+        <v>-0.006752536449553969</v>
+      </c>
+      <c r="K68">
+        <v>0.06295476001476014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01102044206697266</v>
+        <v>0.007510070227260539</v>
       </c>
       <c r="C69">
-        <v>-0.06607108424869007</v>
+        <v>-0.05733685401124893</v>
       </c>
       <c r="D69">
-        <v>-0.05005394830556275</v>
+        <v>0.02576781621966273</v>
       </c>
       <c r="E69">
-        <v>-0.0168022786603607</v>
+        <v>-0.002849350801624905</v>
       </c>
       <c r="F69">
-        <v>-0.0004804553144492501</v>
+        <v>0.01256724215489961</v>
       </c>
       <c r="G69">
-        <v>-0.02285647663904901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02471636709729426</v>
+      </c>
+      <c r="H69">
+        <v>0.0427484542294144</v>
+      </c>
+      <c r="I69">
+        <v>0.01259559750777035</v>
+      </c>
+      <c r="J69">
+        <v>0.003050634944418532</v>
+      </c>
+      <c r="K69">
+        <v>0.01699023105043768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2823683183661783</v>
+        <v>0.2778998668298704</v>
       </c>
       <c r="C71">
-        <v>0.05941497354483234</v>
+        <v>0.07576826089251246</v>
       </c>
       <c r="D71">
-        <v>0.04020401465913435</v>
+        <v>-0.02472874200178818</v>
       </c>
       <c r="E71">
-        <v>0.03320956565067236</v>
+        <v>0.01535463224552031</v>
       </c>
       <c r="F71">
-        <v>0.02884502346476334</v>
+        <v>-0.06244942541687699</v>
       </c>
       <c r="G71">
-        <v>0.0047116231780009</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01644446302896367</v>
+      </c>
+      <c r="H71">
+        <v>0.05657736121654392</v>
+      </c>
+      <c r="I71">
+        <v>0.1261808887869634</v>
+      </c>
+      <c r="J71">
+        <v>-0.03887868451875838</v>
+      </c>
+      <c r="K71">
+        <v>0.05828727913570662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.04160252434982072</v>
+        <v>0.05608851472088384</v>
       </c>
       <c r="C72">
-        <v>-0.157822847385528</v>
+        <v>-0.1401307688787979</v>
       </c>
       <c r="D72">
-        <v>-0.06552486290962946</v>
+        <v>0.04342113156691368</v>
       </c>
       <c r="E72">
-        <v>0.04096320755781332</v>
+        <v>0.004199905825827603</v>
       </c>
       <c r="F72">
-        <v>0.09670575971526227</v>
+        <v>0.02758615037470285</v>
       </c>
       <c r="G72">
-        <v>-0.08467385325636649</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02909002046677805</v>
+      </c>
+      <c r="H72">
+        <v>0.02337292303995955</v>
+      </c>
+      <c r="I72">
+        <v>-0.126514710734126</v>
+      </c>
+      <c r="J72">
+        <v>-0.05624182504583977</v>
+      </c>
+      <c r="K72">
+        <v>0.01478017207707245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0774796880488582</v>
+        <v>0.1488455298685626</v>
       </c>
       <c r="C73">
-        <v>-0.1356820793504551</v>
+        <v>-0.1967992019783485</v>
       </c>
       <c r="D73">
-        <v>-0.1107500850443151</v>
+        <v>0.07972631246911333</v>
       </c>
       <c r="E73">
-        <v>-0.1351956288102294</v>
+        <v>0.003030568550634338</v>
       </c>
       <c r="F73">
-        <v>0.07346144037029326</v>
+        <v>0.2479753193080472</v>
       </c>
       <c r="G73">
-        <v>-0.3970131798751574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3725151117447791</v>
+      </c>
+      <c r="H73">
+        <v>-0.317393364405295</v>
+      </c>
+      <c r="I73">
+        <v>0.07820926450343144</v>
+      </c>
+      <c r="J73">
+        <v>-0.07420580442696922</v>
+      </c>
+      <c r="K73">
+        <v>-0.07337953696082267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01855630579767392</v>
+        <v>0.0383113155613676</v>
       </c>
       <c r="C74">
-        <v>-0.1049907208725808</v>
+        <v>-0.1071950354023511</v>
       </c>
       <c r="D74">
-        <v>-0.07073615246206699</v>
+        <v>0.04774922105023471</v>
       </c>
       <c r="E74">
-        <v>-0.08465909986525762</v>
+        <v>0.002536192611501716</v>
       </c>
       <c r="F74">
-        <v>-0.04215708869420003</v>
+        <v>0.05418602132922232</v>
       </c>
       <c r="G74">
-        <v>0.01281063331993213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0555348910056122</v>
+      </c>
+      <c r="H74">
+        <v>-0.002654314902587546</v>
+      </c>
+      <c r="I74">
+        <v>-0.006760546362205736</v>
+      </c>
+      <c r="J74">
+        <v>-0.02331383900974896</v>
+      </c>
+      <c r="K74">
+        <v>0.06813488337426023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06157017097796062</v>
+        <v>0.06179132963050439</v>
       </c>
       <c r="C75">
-        <v>-0.1568656392529147</v>
+        <v>-0.1704611079103504</v>
       </c>
       <c r="D75">
-        <v>-0.09562841079390794</v>
+        <v>0.08629076587961533</v>
       </c>
       <c r="E75">
-        <v>-0.2124388877719127</v>
+        <v>0.05318021391431398</v>
       </c>
       <c r="F75">
-        <v>-0.06769941696582395</v>
+        <v>0.1207609288482407</v>
       </c>
       <c r="G75">
-        <v>0.1430193549540668</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2301902187122798</v>
+      </c>
+      <c r="H75">
+        <v>-0.0235647930239589</v>
+      </c>
+      <c r="I75">
+        <v>0.1323539028809567</v>
+      </c>
+      <c r="J75">
+        <v>0.06300540705656309</v>
+      </c>
+      <c r="K75">
+        <v>0.08622631421447949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02955605226408244</v>
+        <v>0.042004895009779</v>
       </c>
       <c r="C76">
-        <v>-0.1175419934063122</v>
+        <v>-0.1255724867440203</v>
       </c>
       <c r="D76">
-        <v>-0.0651417971114666</v>
+        <v>0.07366912795595512</v>
       </c>
       <c r="E76">
-        <v>-0.1076232726398871</v>
+        <v>0.006108367444686798</v>
       </c>
       <c r="F76">
-        <v>-0.05600547613157062</v>
+        <v>0.08627786463641883</v>
       </c>
       <c r="G76">
-        <v>0.0008459175164972626</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.0824617074371428</v>
+      </c>
+      <c r="H76">
+        <v>-0.009144817613961295</v>
+      </c>
+      <c r="I76">
+        <v>0.005212715896950525</v>
+      </c>
+      <c r="J76">
+        <v>0.03310482766078516</v>
+      </c>
+      <c r="K76">
+        <v>0.1315954967627177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.06367417511355897</v>
+        <v>0.04522208453890563</v>
       </c>
       <c r="C77">
-        <v>-0.3071648967431607</v>
+        <v>-0.3900064333055225</v>
       </c>
       <c r="D77">
-        <v>0.8487851057426081</v>
+        <v>-0.9039125384662821</v>
       </c>
       <c r="E77">
-        <v>-0.3235966584672215</v>
+        <v>0.04928977265832177</v>
       </c>
       <c r="F77">
-        <v>0.07537077394635337</v>
+        <v>0.08103824605284092</v>
       </c>
       <c r="G77">
-        <v>-0.05399196934328861</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03044602096171548</v>
+      </c>
+      <c r="H77">
+        <v>0.06000062024230467</v>
+      </c>
+      <c r="I77">
+        <v>0.003402996982961392</v>
+      </c>
+      <c r="J77">
+        <v>0.002138051343992446</v>
+      </c>
+      <c r="K77">
+        <v>0.01537689777820834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03803141036267749</v>
+        <v>0.03429683530875929</v>
       </c>
       <c r="C78">
-        <v>-0.1514814189501547</v>
+        <v>-0.1147429928095785</v>
       </c>
       <c r="D78">
-        <v>-0.0985316172029676</v>
+        <v>0.09803455739465919</v>
       </c>
       <c r="E78">
-        <v>0.07125388747191505</v>
+        <v>-0.04785730480754052</v>
       </c>
       <c r="F78">
-        <v>-0.1087164381474351</v>
+        <v>-0.007528198647938297</v>
       </c>
       <c r="G78">
-        <v>0.01413709281450782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1081691856063147</v>
+      </c>
+      <c r="H78">
+        <v>0.05916631383039722</v>
+      </c>
+      <c r="I78">
+        <v>-0.07872211329173349</v>
+      </c>
+      <c r="J78">
+        <v>-0.4049195667410033</v>
+      </c>
+      <c r="K78">
+        <v>0.004924958448050858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.03837866988327839</v>
+        <v>0.0557059313809528</v>
       </c>
       <c r="C79">
-        <v>-0.1925554874017674</v>
+        <v>-0.147724208641154</v>
       </c>
       <c r="D79">
-        <v>-0.124764685712058</v>
+        <v>0.06971581406027871</v>
       </c>
       <c r="E79">
-        <v>-0.14921782982456</v>
+        <v>-0.0160544655386387</v>
       </c>
       <c r="F79">
-        <v>-0.1390808257967393</v>
+        <v>0.07690262387324166</v>
       </c>
       <c r="G79">
-        <v>0.1241936184796596</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2389938133225677</v>
+      </c>
+      <c r="H79">
+        <v>0.002465531394584376</v>
+      </c>
+      <c r="I79">
+        <v>0.07080553696392783</v>
+      </c>
+      <c r="J79">
+        <v>-0.08268458972432344</v>
+      </c>
+      <c r="K79">
+        <v>0.06237035662083713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01532126817918744</v>
+        <v>0.02064029634750484</v>
       </c>
       <c r="C80">
-        <v>-0.04304610198206838</v>
+        <v>-0.05241794526642033</v>
       </c>
       <c r="D80">
-        <v>-0.04930246834363088</v>
+        <v>0.04027519175394219</v>
       </c>
       <c r="E80">
-        <v>-0.008035787269264185</v>
+        <v>-0.04923735266770547</v>
       </c>
       <c r="F80">
-        <v>-0.02713659838001714</v>
+        <v>-0.0210694611107614</v>
       </c>
       <c r="G80">
-        <v>-0.0019230571994277</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05361145090735209</v>
+      </c>
+      <c r="H80">
+        <v>-0.03348829960158366</v>
+      </c>
+      <c r="I80">
+        <v>0.04659142908593521</v>
+      </c>
+      <c r="J80">
+        <v>0.07691037398242505</v>
+      </c>
+      <c r="K80">
+        <v>0.02765662248750769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01340027220393107</v>
+        <v>0.01619905864222547</v>
       </c>
       <c r="C81">
-        <v>-0.0918548877894584</v>
+        <v>-0.1022956587081346</v>
       </c>
       <c r="D81">
-        <v>-0.08318660103792154</v>
+        <v>0.05544680841260303</v>
       </c>
       <c r="E81">
-        <v>-0.1174668271594039</v>
+        <v>-0.009262444090119778</v>
       </c>
       <c r="F81">
-        <v>-0.06831044657619439</v>
+        <v>0.05015175453270897</v>
       </c>
       <c r="G81">
-        <v>0.030675984949844</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1113780767640778</v>
+      </c>
+      <c r="H81">
+        <v>0.0463183289960508</v>
+      </c>
+      <c r="I81">
+        <v>0.05513453518466291</v>
+      </c>
+      <c r="J81">
+        <v>0.02421032281187229</v>
+      </c>
+      <c r="K81">
+        <v>0.08816613084747231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.03330271773737713</v>
+        <v>0.04655212156121575</v>
       </c>
       <c r="C82">
-        <v>-0.09504370086831153</v>
+        <v>-0.1062064742552541</v>
       </c>
       <c r="D82">
-        <v>-0.07602871208261289</v>
+        <v>0.06614328390607427</v>
       </c>
       <c r="E82">
-        <v>-0.1179760312585713</v>
+        <v>-0.001392643949462923</v>
       </c>
       <c r="F82">
-        <v>-0.03684591482695192</v>
+        <v>0.07413650854350332</v>
       </c>
       <c r="G82">
-        <v>0.004636920313524335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09445239731047156</v>
+      </c>
+      <c r="H82">
+        <v>0.01274930043392038</v>
+      </c>
+      <c r="I82">
+        <v>0.02318551459136856</v>
+      </c>
+      <c r="J82">
+        <v>0.01388534736909735</v>
+      </c>
+      <c r="K82">
+        <v>0.1048704114298363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004376714780226491</v>
+        <v>0.0001821844344476933</v>
       </c>
       <c r="C83">
-        <v>-0.05086035103900809</v>
+        <v>-0.002205418500099128</v>
       </c>
       <c r="D83">
-        <v>0.1872362632197891</v>
+        <v>-0.06287025992205404</v>
       </c>
       <c r="E83">
-        <v>0.2808785139594044</v>
+        <v>-0.9619847737576779</v>
       </c>
       <c r="F83">
-        <v>-0.8559602604998319</v>
+        <v>-0.020978190197652</v>
       </c>
       <c r="G83">
-        <v>-0.1927365147289868</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04155293111956234</v>
+      </c>
+      <c r="H83">
+        <v>-0.08826234389683434</v>
+      </c>
+      <c r="I83">
+        <v>-0.05945764251865535</v>
+      </c>
+      <c r="J83">
+        <v>-0.0032010249632209</v>
+      </c>
+      <c r="K83">
+        <v>0.09191762650465995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.000741472673773443</v>
+        <v>-0.0004078155759578252</v>
       </c>
       <c r="C84">
-        <v>-0.05255484361921573</v>
+        <v>-0.04488226996334786</v>
       </c>
       <c r="D84">
-        <v>-0.02761805259640059</v>
+        <v>0.06250868150683665</v>
       </c>
       <c r="E84">
-        <v>0.1044288459511472</v>
+        <v>0.01742323067164668</v>
       </c>
       <c r="F84">
-        <v>0.07737293588645895</v>
+        <v>-0.1033321713249645</v>
       </c>
       <c r="G84">
-        <v>0.1022714360148846</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03053208331867499</v>
+      </c>
+      <c r="H84">
+        <v>0.07504257405735293</v>
+      </c>
+      <c r="I84">
+        <v>-0.1162656790894634</v>
+      </c>
+      <c r="J84">
+        <v>0.05487102787037489</v>
+      </c>
+      <c r="K84">
+        <v>0.08276395199074237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02641675077795073</v>
+        <v>0.02993316204904995</v>
       </c>
       <c r="C85">
-        <v>-0.1357790546091079</v>
+        <v>-0.1173902354995906</v>
       </c>
       <c r="D85">
-        <v>-0.09191081817774202</v>
+        <v>0.08075401365805403</v>
       </c>
       <c r="E85">
-        <v>-0.1471237100465635</v>
+        <v>0.001306736059696071</v>
       </c>
       <c r="F85">
-        <v>-0.09445504942283685</v>
+        <v>0.1284084777889419</v>
       </c>
       <c r="G85">
-        <v>0.08313029542598328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.201342446348623</v>
+      </c>
+      <c r="H85">
+        <v>-0.02227944083243863</v>
+      </c>
+      <c r="I85">
+        <v>0.0857690007702039</v>
+      </c>
+      <c r="J85">
+        <v>0.03029482166050395</v>
+      </c>
+      <c r="K85">
+        <v>0.1909112025292099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.02012814924543942</v>
+        <v>0.0161610485977987</v>
       </c>
       <c r="C86">
-        <v>-0.07216989612207277</v>
+        <v>-0.08267983705959397</v>
       </c>
       <c r="D86">
-        <v>0.0290202972085883</v>
+        <v>0.02621699346689788</v>
       </c>
       <c r="E86">
-        <v>0.04393341015505933</v>
+        <v>-0.004398470645169323</v>
       </c>
       <c r="F86">
-        <v>0.06631013144535244</v>
+        <v>-0.09150949370094645</v>
       </c>
       <c r="G86">
-        <v>-0.01445872566948197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0457523664795109</v>
+      </c>
+      <c r="H86">
+        <v>0.01982236333275155</v>
+      </c>
+      <c r="I86">
+        <v>0.1300764349876852</v>
+      </c>
+      <c r="J86">
+        <v>-0.1702691804839575</v>
+      </c>
+      <c r="K86">
+        <v>-0.0746564935139265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.03793944460390985</v>
+        <v>0.02351630186073738</v>
       </c>
       <c r="C87">
-        <v>-0.145160673075299</v>
+        <v>-0.1159736895954113</v>
       </c>
       <c r="D87">
-        <v>-0.009912313035305811</v>
+        <v>0.01614106915881897</v>
       </c>
       <c r="E87">
-        <v>0.1237557399781321</v>
+        <v>0.0004919395676172292</v>
       </c>
       <c r="F87">
-        <v>0.001255918513948614</v>
+        <v>-0.07474447834521129</v>
       </c>
       <c r="G87">
-        <v>0.03669153753385748</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.004965811944613245</v>
+      </c>
+      <c r="H87">
+        <v>0.03905629084283112</v>
+      </c>
+      <c r="I87">
+        <v>-0.09037042694324791</v>
+      </c>
+      <c r="J87">
+        <v>-0.05648145275832755</v>
+      </c>
+      <c r="K87">
+        <v>0.07896850936701236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.003684667436466478</v>
+        <v>0.03571947273986607</v>
       </c>
       <c r="C88">
-        <v>-0.03955917093593962</v>
+        <v>-0.06463427426593647</v>
       </c>
       <c r="D88">
-        <v>-0.04752987897064333</v>
+        <v>0.04242086156270603</v>
       </c>
       <c r="E88">
-        <v>-0.05690921786762936</v>
+        <v>0.01497360942991882</v>
       </c>
       <c r="F88">
-        <v>0.01897788495810972</v>
+        <v>0.02147089387817131</v>
       </c>
       <c r="G88">
-        <v>-0.006979720577672473</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02248594990332147</v>
+      </c>
+      <c r="H88">
+        <v>0.0006534395863593929</v>
+      </c>
+      <c r="I88">
+        <v>0.02362604010527297</v>
+      </c>
+      <c r="J88">
+        <v>0.07692487920356464</v>
+      </c>
+      <c r="K88">
+        <v>0.06309249473821248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3882263907178197</v>
+        <v>0.3903976572103652</v>
       </c>
       <c r="C89">
-        <v>0.08603601780843617</v>
+        <v>0.107203583898043</v>
       </c>
       <c r="D89">
-        <v>-0.1038009118851319</v>
+        <v>-0.03236344654047802</v>
       </c>
       <c r="E89">
-        <v>0.07100505185112775</v>
+        <v>0.02939296689776439</v>
       </c>
       <c r="F89">
-        <v>-0.0491684980668341</v>
+        <v>-0.04934884877163739</v>
       </c>
       <c r="G89">
-        <v>0.09131362557345138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01639781417558233</v>
+      </c>
+      <c r="H89">
+        <v>-0.01688924182083966</v>
+      </c>
+      <c r="I89">
+        <v>-0.7541116609798086</v>
+      </c>
+      <c r="J89">
+        <v>0.04467964376544671</v>
+      </c>
+      <c r="K89">
+        <v>-0.05523959752654017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3012994314202047</v>
+        <v>0.3137250345061847</v>
       </c>
       <c r="C90">
-        <v>0.02747146438815755</v>
+        <v>0.06829290544519345</v>
       </c>
       <c r="D90">
-        <v>0.01108101463575528</v>
+        <v>-0.01430937559049238</v>
       </c>
       <c r="E90">
-        <v>0.05304617811125268</v>
+        <v>-0.02182799165823781</v>
       </c>
       <c r="F90">
-        <v>-0.05801465741705959</v>
+        <v>-0.03058757461352249</v>
       </c>
       <c r="G90">
-        <v>-0.02903572311271969</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01903013265495847</v>
+      </c>
+      <c r="H90">
+        <v>0.01233810185158943</v>
+      </c>
+      <c r="I90">
+        <v>0.0757323547064044</v>
+      </c>
+      <c r="J90">
+        <v>-0.02418098642771381</v>
+      </c>
+      <c r="K90">
+        <v>0.005749359895737444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03406653893112472</v>
+        <v>0.05251101303975773</v>
       </c>
       <c r="C91">
-        <v>-0.09585107655965587</v>
+        <v>-0.09184307768844946</v>
       </c>
       <c r="D91">
-        <v>-0.04965252270439405</v>
+        <v>0.04554515742649618</v>
       </c>
       <c r="E91">
-        <v>-0.08309293509751761</v>
+        <v>-0.02865167602424693</v>
       </c>
       <c r="F91">
-        <v>-0.06709561270425669</v>
+        <v>0.05998562395807465</v>
       </c>
       <c r="G91">
-        <v>0.03620637085634002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08038295906661574</v>
+      </c>
+      <c r="H91">
+        <v>-0.02254243978233796</v>
+      </c>
+      <c r="I91">
+        <v>0.003431157193247502</v>
+      </c>
+      <c r="J91">
+        <v>0.04269616754973014</v>
+      </c>
+      <c r="K91">
+        <v>0.02741897192466063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3801610604571565</v>
+        <v>0.3545303445786281</v>
       </c>
       <c r="C92">
-        <v>0.1090303653978735</v>
+        <v>0.1244449180805981</v>
       </c>
       <c r="D92">
-        <v>0.03018200018488188</v>
+        <v>-0.05484223852585526</v>
       </c>
       <c r="E92">
-        <v>0.02207900116079852</v>
+        <v>0.04357157738674224</v>
       </c>
       <c r="F92">
-        <v>0.1072929005726946</v>
+        <v>-0.0650704806920136</v>
       </c>
       <c r="G92">
-        <v>0.0406211548161909</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0008242896327827499</v>
+      </c>
+      <c r="H92">
+        <v>0.07967782563941246</v>
+      </c>
+      <c r="I92">
+        <v>0.152510032894916</v>
+      </c>
+      <c r="J92">
+        <v>-0.01242614720621289</v>
+      </c>
+      <c r="K92">
+        <v>-0.04774135396690502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.298239118254286</v>
+        <v>0.3107337618188958</v>
       </c>
       <c r="C93">
-        <v>0.08533481897032788</v>
+        <v>0.1126084323292102</v>
       </c>
       <c r="D93">
-        <v>-0.01636198839326761</v>
+        <v>-0.007101411155381036</v>
       </c>
       <c r="E93">
-        <v>0.05942355749310434</v>
+        <v>-0.004021119862659099</v>
       </c>
       <c r="F93">
-        <v>-0.005095953126831714</v>
+        <v>-0.04092263218995669</v>
       </c>
       <c r="G93">
-        <v>0.03241033534676722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03955182667619044</v>
+      </c>
+      <c r="H93">
+        <v>0.03834335591497633</v>
+      </c>
+      <c r="I93">
+        <v>0.1039729436504907</v>
+      </c>
+      <c r="J93">
+        <v>-0.01099999805757662</v>
+      </c>
+      <c r="K93">
+        <v>0.03653417212515283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.05818508053309426</v>
+        <v>0.07788475864408621</v>
       </c>
       <c r="C94">
-        <v>-0.2119888482716977</v>
+        <v>-0.1719380141165197</v>
       </c>
       <c r="D94">
-        <v>-0.1607990255698153</v>
+        <v>0.1049535865055592</v>
       </c>
       <c r="E94">
-        <v>-0.3132669630103182</v>
+        <v>-0.003719638047316784</v>
       </c>
       <c r="F94">
-        <v>-0.2231957156161431</v>
+        <v>0.1704774072672639</v>
       </c>
       <c r="G94">
-        <v>0.4944731912211588</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.544230147512141</v>
+      </c>
+      <c r="H94">
+        <v>-0.1810622704480687</v>
+      </c>
+      <c r="I94">
+        <v>-0.1113205251140956</v>
+      </c>
+      <c r="J94">
+        <v>0.2367470302775684</v>
+      </c>
+      <c r="K94">
+        <v>-0.4873293601404886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03970873295536544</v>
+        <v>0.03746188914692968</v>
       </c>
       <c r="C95">
-        <v>-0.09673819010015262</v>
+        <v>-0.1276240406685507</v>
       </c>
       <c r="D95">
-        <v>-0.03455111300306615</v>
+        <v>0.05975232170253655</v>
       </c>
       <c r="E95">
-        <v>-0.04753752288948234</v>
+        <v>0.03894019162959066</v>
       </c>
       <c r="F95">
-        <v>-0.02107754386780282</v>
+        <v>0.0728641920527207</v>
       </c>
       <c r="G95">
-        <v>-0.1417329608745074</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05205957265139882</v>
+      </c>
+      <c r="H95">
+        <v>0.07347235482113289</v>
+      </c>
+      <c r="I95">
+        <v>-0.116752624977393</v>
+      </c>
+      <c r="J95">
+        <v>0.2481507264998539</v>
+      </c>
+      <c r="K95">
+        <v>0.3287577938262822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0002321801287797825</v>
+        <v>0.01125466630905488</v>
       </c>
       <c r="C97">
-        <v>3.704912070676477e-06</v>
+        <v>-0.01455347262068992</v>
       </c>
       <c r="D97">
-        <v>6.07742098820055e-05</v>
+        <v>-0.01007520055669866</v>
       </c>
       <c r="E97">
-        <v>-0.0005756941732754865</v>
+        <v>0.03312384193108515</v>
       </c>
       <c r="F97">
-        <v>0.0006429311795101919</v>
+        <v>-0.01014127624318814</v>
       </c>
       <c r="G97">
-        <v>0.0007376510488655213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03024900707040742</v>
+      </c>
+      <c r="H97">
+        <v>0.0343349078474063</v>
+      </c>
+      <c r="I97">
+        <v>-0.02546492874635082</v>
+      </c>
+      <c r="J97">
+        <v>0.01126919776399555</v>
+      </c>
+      <c r="K97">
+        <v>-0.06494349567303377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09327027424035787</v>
+        <v>0.1294287197313931</v>
       </c>
       <c r="C98">
-        <v>-0.1460596451284745</v>
+        <v>-0.1586332385649085</v>
       </c>
       <c r="D98">
-        <v>-0.1022815073514989</v>
+        <v>0.08604209950750495</v>
       </c>
       <c r="E98">
-        <v>-0.06946735332717448</v>
+        <v>0.000938785064674249</v>
       </c>
       <c r="F98">
-        <v>0.05723928076804096</v>
+        <v>0.2116362218889453</v>
       </c>
       <c r="G98">
-        <v>-0.2679849781663181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3225845577514413</v>
+      </c>
+      <c r="H98">
+        <v>-0.3463076168365946</v>
+      </c>
+      <c r="I98">
+        <v>0.0966580629617855</v>
+      </c>
+      <c r="J98">
+        <v>-0.09653585967896917</v>
+      </c>
+      <c r="K98">
+        <v>-0.1884080700889615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01131238942752364</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.02459873521452442</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.00880591722083229</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.0003987694813096544</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.03931320032712075</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.03509837378524288</v>
+      </c>
+      <c r="H99">
+        <v>0.1066800417472351</v>
+      </c>
+      <c r="I99">
+        <v>-0.004068706214427807</v>
+      </c>
+      <c r="J99">
+        <v>0.009615666113481096</v>
+      </c>
+      <c r="K99">
+        <v>-0.4127422598401752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.01090661089580526</v>
+        <v>0.01368339980695328</v>
       </c>
       <c r="C101">
-        <v>-0.0698177850235803</v>
+        <v>-0.07856294311895533</v>
       </c>
       <c r="D101">
-        <v>-0.03865639092554295</v>
+        <v>0.05246254674936363</v>
       </c>
       <c r="E101">
-        <v>0.05525085028177529</v>
+        <v>-0.0513433452391576</v>
       </c>
       <c r="F101">
-        <v>0.01598425821187412</v>
+        <v>-0.006141155907786766</v>
       </c>
       <c r="G101">
-        <v>-0.09659306379609138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1322278218631144</v>
+      </c>
+      <c r="H101">
+        <v>0.2865696497725334</v>
+      </c>
+      <c r="I101">
+        <v>-0.03571053502057225</v>
+      </c>
+      <c r="J101">
+        <v>0.1654248107955507</v>
+      </c>
+      <c r="K101">
+        <v>-0.2051626097018393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01090701908392655</v>
+        <v>0.00415433651330143</v>
       </c>
       <c r="C102">
-        <v>-0.03595737631476752</v>
+        <v>-0.01435372472162949</v>
       </c>
       <c r="D102">
-        <v>-0.01220619396881607</v>
+        <v>0.002703623546240393</v>
       </c>
       <c r="E102">
-        <v>-0.02902568063173408</v>
+        <v>-0.00693757777111591</v>
       </c>
       <c r="F102">
-        <v>-0.0276696080815464</v>
+        <v>0.009421770948154572</v>
       </c>
       <c r="G102">
-        <v>-0.004287655248691887</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.009995131744897639</v>
+      </c>
+      <c r="H102">
+        <v>0.0003175240194707836</v>
+      </c>
+      <c r="I102">
+        <v>-0.01998169491943992</v>
+      </c>
+      <c r="J102">
+        <v>-0.001573271831051387</v>
+      </c>
+      <c r="K102">
+        <v>-0.02535999185521378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
